--- a/data/example_data/one_obs_min_vars.xlsx
+++ b/data/example_data/one_obs_min_vars.xlsx
@@ -5,46 +5,26 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinegoode/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinegoode/Desktop/carp-rf/shiny-app/app/data/example_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6088ACB7-6D6A-3745-8343-1B7F24647FB0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8B236A-8FD8-AB47-83F1-708658A2282E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="8480" windowWidth="27640" windowHeight="16440" xr2:uid="{11F9468F-28F6-AE49-89F5-0BB6850F5160}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="template" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Egg_ID</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>2014-07-27</t>
-  </si>
-  <si>
     <t>Temperature</t>
   </si>
   <si>
@@ -79,6 +59,15 @@
   </si>
   <si>
     <t>Larval_Length</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Day</t>
   </si>
   <si>
     <t>N</t>
@@ -94,7 +83,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -102,16 +91,316 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -119,16 +408,204 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -439,92 +916,106 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DC8C337-3AF1-2542-8CF1-215914D9E769}">
-  <dimension ref="A1:N2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
+      <c r="B2">
+        <v>2014</v>
       </c>
       <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>27</v>
+      </c>
+      <c r="E2">
         <v>24.7</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>522</v>
       </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
       </c>
       <c r="H2" t="s">
         <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2">
-        <v>1.42716625</v>
-      </c>
-      <c r="K2">
-        <v>4.3584913000000003E-2</v>
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
       </c>
       <c r="L2">
         <v>1.42716625</v>
@@ -533,10 +1024,122 @@
         <v>4.3584913000000003E-2</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.42716625</v>
+      </c>
+      <c r="O2">
+        <v>4.3584913000000003E-2</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <dataValidations count="32">
+    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Warning" error="Conductivity entered falls outside of the range of the data using to train the model (274 to 781 microS/cm). The model will be forced to extrapolate when making a prediction. Would you like to proceed?" promptTitle="Water Conductivity" prompt="microS/cm" sqref="F2:F1048576" xr:uid="{7CF36FE9-74C6-8446-B40E-2C174BEF381D}">
+      <formula1>274</formula1>
+      <formula2>718</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Error" error="Egg_Stage must be one of the following levels: 1, 2, 3, 4, 5, 6, 7, 9, BROKEN, D" promptTitle="Egg Development Stage" prompt="1, 2, 3, 4, 5, 6, 7, 8, BROKEN, or D" sqref="I2:I1048576" xr:uid="{C1000E4C-B20E-5B40-BC45-FE810291993F}">
+      <formula1>"1, 2, 3, 4, 5, 6, 7, 8, BROKEN, D"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Warning" error="Membrane_SD entered falls outside of the range of the data using to train the model (0.001 to 1.472 mm). The model will be forced to extrapolate when making a prediction. Would you like to proceed?" promptTitle="SD of Membrane Diameter" prompt="mm" sqref="M2:M1048576" xr:uid="{6FAB7F52-32D2-464E-B370-DA664755D0F7}">
+      <formula1>0.001</formula1>
+      <formula2>1.472</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Error" error="Sticky_Diffuse must be entered as Y or N." promptTitle="Debris on Membrane" prompt="Y or N" sqref="K2:K1048576" xr:uid="{1704DA39-ED4F-2A49-8B49-B145F088C8A3}">
+      <formula1>"Y, N"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Error" error="Compact_Diffuse must be entered as C or D." promptTitle="Yolk Compact or Diffuse" prompt="C or D" sqref="J2:J1048576" xr:uid="{C0715C7D-7951-1843-B092-DC074DA6B996}">
+      <formula1>"C, D"</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Required variable names cannot be adjusted" promptTitle="Year of Collection" prompt="Formated as YYYY" sqref="B1" xr:uid="{05CAC93B-6405-6642-846F-26AF0B169E4C}">
+      <formula1>"Year"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Warning" error="Temperature entered falls outside of the range of the data using to train the model (11 to 31.7 C). The model will be forced to extrapolate when making a prediction. Would you like to proceed?" promptTitle="Water Temperature" prompt="Degrees Celcius" sqref="E2:E1048576" xr:uid="{89AB2FFA-A32B-3548-B0E4-7487E4E802D9}">
+      <formula1>11</formula1>
+      <formula2>30.7</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Warning" error="Deflated must be entered as Y or N." promptTitle="Membrane Deflated" prompt="Y or N" sqref="G2:G1048576" xr:uid="{E718A30A-AAD8-D14F-B9FF-4283F3985B21}">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Error" error="Pigment must be entered as Y or N." promptTitle="Pigment on Yolk" prompt="Y or N" sqref="H2:H1048576" xr:uid="{8E262B01-DB7B-8442-82E6-123A2F48B6F0}">
+      <formula1>"Y, N"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showErrorMessage="1" promptTitle="Egg Identification" prompt="Any format acceptable" sqref="A2:A1048576" xr:uid="{4B7E24F8-60B5-EF42-8742-5023933216AB}"/>
+    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Warning" error="Yolk_Ave entered falls outside of the range of the data using to train the model (0.434 to 4.371 mm). The model will be forced to extrapolate when making a prediction. Would you like to proceed?" promptTitle="Average Yolk Diameter" prompt="mm" sqref="N2:N1048576" xr:uid="{0776C39D-DB64-AD46-AAD5-8BC1DD7441A6}">
+      <formula1>0.434</formula1>
+      <formula2>4.371</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Warning" error="Membrane_Ave entered falls outside of the range of the data using to train the model (0.728 to 5.492 mm). The model will be forced to extrapolate when making a prediction. Would you like to proceed?" promptTitle="Average Membrane Diameter" prompt="mm" sqref="L2:L1048576" xr:uid="{C2372076-5E59-FD47-B2E3-1A72D6517EC0}">
+      <formula1>0.728</formula1>
+      <formula2>5.492</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Warning" error="Larval_Length entered falls outside of the range of the data using to train the model (0 to 5.089 mm). The model will be forced to extrapolate when making a prediction. Would you like to proceed?" promptTitle="Midline Larval Length" prompt="mm" sqref="P2:P1048576" xr:uid="{F10EBEF6-DECF-5D40-97EE-7749546032E2}">
+      <formula1>0</formula1>
+      <formula2>5.089</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showErrorMessage="1" errorTitle="Entry Error" error="Day must be entered as a whole number ranging from 1 to 31." promptTitle="Day of Collection" prompt="1 to 31_x000a__x000a_Self check: make sure the day falls within the range of days for the corresponding month" sqref="D2:D1048576" xr:uid="{CFBBE62B-5F88-5946-9C36-89A75DCBD42A}">
+      <formula1>1</formula1>
+      <formula2>31</formula2>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Required variable names cannot be adjusted" promptTitle="Month" prompt="1 to 12" sqref="C1" xr:uid="{FDBAA811-F673-854A-80C9-3D7A48E037BA}">
+      <formula1>"Month"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Warning" error="Yolk_SD entered falls outside of the range of the data using to train the model (0.005 to 1.377 mm). The model will be forced to extrapolate when making a prediction. Would you like to proceed?" promptTitle="SD of Yolk Diameter" prompt="mm" sqref="O2:O1048576" xr:uid="{D73F7FCA-DF77-0E40-8806-426B6B1AAE1F}">
+      <formula1>0.005</formula1>
+      <formula2>1.377</formula2>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Required variable names cannot be adjusted" promptTitle="Egg Identification" prompt="Any format acceptable" sqref="A1" xr:uid="{AADE42D3-CD8D-2845-8794-E8BAB0EC0252}">
+      <formula1>"Egg_ID"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showErrorMessage="1" errorTitle="Entry Error" error="Year must be a positive integer of the format YYYY." promptTitle="Year of Collection" prompt="Formated as YYYY" sqref="B2:B1048576" xr:uid="{3BDDD030-74B2-ED44-9D85-12111E507C9B}">
+      <formula1>1000</formula1>
+      <formula2>9999</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showErrorMessage="1" errorTitle="Entry Error" error="Month must be entered as a whole number ranging from 1 to 12." promptTitle="Month" prompt="1 to 12" sqref="C2:C1048576" xr:uid="{5324F153-32C8-204B-8021-8CC2C8CF48A1}">
+      <formula1>1</formula1>
+      <formula2>12</formula2>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Required variable names cannot be adjusted" promptTitle="Day of Collection" prompt="1 to 31_x000a__x000a_Self check: make sure the day falls within the range of days for the corresponding month" sqref="D1" xr:uid="{07879B7E-CD05-3645-9E0D-C02E457F8A30}">
+      <formula1>"Day"</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Required variable names cannot be adjusted" promptTitle="Water Temperature" prompt="Degrees Celcius" sqref="E1" xr:uid="{B0AE215E-DC97-114D-B367-7EDDE9CAD25D}">
+      <formula1>"Temperature"</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Required variable names cannot be adjusted" promptTitle="Water Conductivity" prompt="microS/cm" sqref="F1" xr:uid="{1A5C2180-C197-164F-B4EF-CE8E5482CB1E}">
+      <formula1>"Conductivity"</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Required variable names cannot be adjusted" promptTitle="Membrane Deflated" prompt="Y or N" sqref="G1" xr:uid="{02F0DDF6-3CAB-7A4E-86C9-748ED7FFF287}">
+      <formula1>"Deflated"</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Required variable names cannot be adjusted" promptTitle="Pigment on Yolk" prompt="Y or N" sqref="H1" xr:uid="{9B89605B-F6FA-C74C-862B-84568D60ACC1}">
+      <formula1>"Pigment"</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Required variable names cannot be adjusted" promptTitle="Egg Development Stage" prompt="1, 2, 3, 4, 5, 6, 7, 8, BROKEN, or D" sqref="I1" xr:uid="{C7600A6B-CFD0-6049-AD96-2A66FC22C499}">
+      <formula1>"Egg_Stage"</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Required variable names cannot be adjusted" promptTitle="Yolk Compact or Diffuse" prompt="C or D" sqref="J1" xr:uid="{C043403F-FFE9-1A40-8B01-7B36DDC86BB9}">
+      <formula1>"Compact_Diffuse"</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Required variable names cannot be adjusted" promptTitle="Debris on Membrane" prompt="Y or N" sqref="K1" xr:uid="{65540C1B-7460-C24E-BC73-900EC0566F13}">
+      <formula1>"Sticky_Debris"</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Required variable names cannot be adjusted" promptTitle="Average Membrane Diameter" prompt="mm" sqref="L1" xr:uid="{3CEEB341-8622-0343-8E0A-9BD116D01147}">
+      <formula1>"Membrane_Ave"</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Required variable names cannot be adjusted" promptTitle="SD of Membrane Diameter" prompt="mm" sqref="M1" xr:uid="{5E062560-D995-ED43-B31B-3714167866DF}">
+      <formula1>"Membrane_SD"</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Required variable names cannot be adjusted" promptTitle="Average Yolk Diameter" prompt="mm" sqref="N1" xr:uid="{34E4634C-9163-DD43-9E5A-2D39B0C85040}">
+      <formula1>"Yolk_Ave"</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Required variable names cannot be adjusted" promptTitle="SD of Yolk Diameter" prompt="mm" sqref="O1" xr:uid="{0648FFCD-3D8F-AE42-A443-E270DBE8FDF5}">
+      <formula1>"Yolk_SD"</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Required variable names cannot be adjusted" promptTitle="Midline Larval Length" prompt="mm" sqref="P1" xr:uid="{46DABF2E-5904-0F42-A7AB-178D4B1F828B}">
+      <formula1>"Larval_Length"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>